--- a/Adressbuch/Output.xlsx
+++ b/Adressbuch/Output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91" count="202">
   <si>
     <t>Name</t>
   </si>
@@ -155,22 +155,22 @@
     <t>30.12.</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>353</t>
+    <t>162</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>352</t>
   </si>
   <si>
     <t>Muster</t>
@@ -188,7 +188,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>69</t>
+    <t>68</t>
   </si>
   <si>
     <t>Hans</t>
@@ -209,7 +209,7 @@
     <t>Paulsen</t>
   </si>
   <si>
-    <t>356</t>
+    <t>355</t>
   </si>
   <si>
     <t>-1</t>
@@ -254,7 +254,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>163</t>
+    <t>0</t>
   </si>
   <si>
     <t>May</t>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>09.12.</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>01.12.2021</t>
+  </si>
+  <si>
+    <t>01.12.</t>
+  </si>
+  <si>
+    <t>345</t>
   </si>
 </sst>
 </file>
@@ -765,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -841,7 +856,7 @@
         <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -879,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -998,13 +1013,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1025,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1356,7 +1371,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p5G1tyvqT9wSNj10kinGzOySL5nzQBdT06oqJIOIulhRJqvqvK/BGFlN2Qh+6h9p2E7sXIOzKO/7UA2O2v+UBA==" saltValue="Fyl9uBXeMGx0Tu3vNomk7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E30pLBY8IXF822F7wMkyc/RdhnSSC6xa8zxKW54aQWyeJOCJ1wvAKYB5w6R4oWs3LgV84iPl/s7bw0TBNcfANg==" saltValue="jI7/D3ON+ntNy07jPw5RyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>

--- a/Adressbuch/Output.xlsx
+++ b/Adressbuch/Output.xlsx
@@ -1371,7 +1371,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E30pLBY8IXF822F7wMkyc/RdhnSSC6xa8zxKW54aQWyeJOCJ1wvAKYB5w6R4oWs3LgV84iPl/s7bw0TBNcfANg==" saltValue="jI7/D3ON+ntNy07jPw5RyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GAoduLvlTyp1X8+oBeYGeIV37Vw7VyhB+Xx0xav7CgobVPuTJSZJF6sA+q5m9n1EHZX9TZWia5CkLDrOTWIIiA==" saltValue="RQGPmeJx6FeSsrjeawR9iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
